--- a/server/data/users.xlsx
+++ b/server/data/users.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="11">
   <si>
     <t>工号</t>
   </si>
@@ -25,13 +25,25 @@
     <t>部门</t>
   </si>
   <si>
-    <t>000001</t>
-  </si>
-  <si>
-    <t>Eden</t>
+    <t>电话手表</t>
   </si>
   <si>
     <t>Family</t>
+  </si>
+  <si>
+    <t>卖自行车</t>
+  </si>
+  <si>
+    <t>架子鼓</t>
+  </si>
+  <si>
+    <t>亲一口爸爸</t>
+  </si>
+  <si>
+    <t>亲一口妈妈</t>
+  </si>
+  <si>
+    <t>亲个自己</t>
   </si>
   <si>
     <t/>
@@ -473,7 +485,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="13" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="14" width="21.005" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
@@ -489,1455 +501,1455 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="22.5" customFormat="1" s="4">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="22.5" customFormat="1" s="4">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="22.5" customFormat="1" s="4">
-      <c r="A3" s="7" t="s">
+      <c r="C3" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="22.5" customFormat="1" s="4">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C4" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="22.5" customFormat="1" s="4">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="22.5" customFormat="1" s="4">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="22.5" customFormat="1" s="4">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="22.5" customFormat="1" s="4">
-      <c r="A4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="22.5" customFormat="1" s="4">
-      <c r="A5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="22.5" customFormat="1" s="4">
-      <c r="A6" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="22.5" customFormat="1" s="4">
-      <c r="A7" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>6</v>
+      <c r="B7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="22.5" customFormat="1" s="4">
       <c r="A8" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="22.5" customFormat="1" s="4">
       <c r="A9" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="22.5" customFormat="1" s="4">
       <c r="A10" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="22.5" customFormat="1" s="4">
       <c r="A11" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="22.5" customFormat="1" s="4">
       <c r="A12" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="22.5" customFormat="1" s="4">
       <c r="A13" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="22.5" customFormat="1" s="4">
       <c r="A14" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="22.5" customFormat="1" s="4">
       <c r="A15" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="22.5" customFormat="1" s="4">
       <c r="A16" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="22.5" customFormat="1" s="4">
       <c r="A17" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="22.5" customFormat="1" s="4">
       <c r="A18" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="22.5" customFormat="1" s="4">
       <c r="A19" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="22.5" customFormat="1" s="4">
       <c r="A20" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="22.5" customFormat="1" s="4">
       <c r="A21" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="22.5" customFormat="1" s="4">
       <c r="A22" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="22.5" customFormat="1" s="4">
       <c r="A23" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="22.5" customFormat="1" s="4">
       <c r="A24" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="22.5" customFormat="1" s="4">
       <c r="A25" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="22.5" customFormat="1" s="4">
       <c r="A26" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="22.5" customFormat="1" s="4">
       <c r="A27" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="22.5" customFormat="1" s="4">
       <c r="A28" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="22.5" customFormat="1" s="4">
       <c r="A29" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="22.5" customFormat="1" s="4">
       <c r="A30" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="22.5" customFormat="1" s="4">
       <c r="A31" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="22.5" customFormat="1" s="4">
       <c r="A32" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="22.5" customFormat="1" s="4">
       <c r="A33" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="22.5" customFormat="1" s="4">
       <c r="A34" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25" customFormat="1" s="4">
       <c r="A35" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25" customFormat="1" s="4">
       <c r="A36" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25" customFormat="1" s="4">
       <c r="A37" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25" customFormat="1" s="4">
       <c r="A38" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25" customFormat="1" s="4">
       <c r="A39" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25" customFormat="1" s="4">
       <c r="A40" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25" customFormat="1" s="4">
       <c r="A41" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25" customFormat="1" s="4">
       <c r="A42" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25" customFormat="1" s="4">
       <c r="A43" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25" customFormat="1" s="4">
       <c r="A44" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25" customFormat="1" s="4">
       <c r="A45" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25" customFormat="1" s="4">
       <c r="A46" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="17.25" customFormat="1" s="4">
       <c r="A47" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="17.25" customFormat="1" s="4">
       <c r="A48" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="17.25" customFormat="1" s="4">
       <c r="A49" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="17.25" customFormat="1" s="4">
       <c r="A50" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="17.25" customFormat="1" s="4">
       <c r="A51" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="17.25" customFormat="1" s="4">
       <c r="A52" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="17.25" customFormat="1" s="4">
       <c r="A53" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="17.25" customFormat="1" s="4">
       <c r="A54" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="17.25" customFormat="1" s="4">
       <c r="A55" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="17.25" customFormat="1" s="4">
       <c r="A56" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="17.25" customFormat="1" s="4">
       <c r="A57" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="17.25" customFormat="1" s="4">
       <c r="A58" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="17.25" customFormat="1" s="4">
       <c r="A59" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="17.25" customFormat="1" s="4">
       <c r="A60" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="17.25" customFormat="1" s="4">
       <c r="A61" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="17.25" customFormat="1" s="4">
       <c r="A62" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="17.25" customFormat="1" s="4">
       <c r="A63" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="17.25" customFormat="1" s="4">
       <c r="A64" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="17.25" customFormat="1" s="4">
       <c r="A65" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="17.25" customFormat="1" s="4">
       <c r="A66" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="17.25" customFormat="1" s="4">
       <c r="A67" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="17.25" customFormat="1" s="4">
       <c r="A68" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="17.25" customFormat="1" s="4">
       <c r="A69" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="17.25" customFormat="1" s="4">
       <c r="A70" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="17.25" customFormat="1" s="4">
       <c r="A71" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="17.25" customFormat="1" s="4">
       <c r="A72" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="17.25" customFormat="1" s="4">
       <c r="A73" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="17.25" customFormat="1" s="4">
       <c r="A74" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="17.25" customFormat="1" s="4">
       <c r="A75" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="17.25" customFormat="1" s="4">
       <c r="A76" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="17.25" customFormat="1" s="4">
       <c r="A77" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="17.25" customFormat="1" s="4">
       <c r="A78" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="17.25" customFormat="1" s="4">
       <c r="A79" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="17.25">
       <c r="A80" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="17.25">
       <c r="A81" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="17.25">
       <c r="A82" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="17.25">
       <c r="A83" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="17.25">
       <c r="A84" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="17.25">
       <c r="A85" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="17.25">
       <c r="A86" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="17.25">
       <c r="A87" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="17.25">
       <c r="A88" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="17.25">
       <c r="A89" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="17.25">
       <c r="A90" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="17.25">
       <c r="A91" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="17.25">
       <c r="A92" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="17.25">
       <c r="A93" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="17.25">
       <c r="A94" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="17.25">
       <c r="A95" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="17.25">
       <c r="A96" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="17.25">
       <c r="A97" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="17.25">
       <c r="A98" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="17.25">
       <c r="A99" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="17.25">
       <c r="A100" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="17.25">
       <c r="A101" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="17.25">
       <c r="A102" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="17.25">
       <c r="A103" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="17.25">
       <c r="A104" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="17.25">
       <c r="A105" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="17.25">
       <c r="A106" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="17.25">
       <c r="A107" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="17.25">
       <c r="A108" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="17.25">
       <c r="A109" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="17.25">
       <c r="A110" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B110" s="11" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="17.25">
       <c r="A111" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="17.25">
       <c r="A112" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="17.25">
       <c r="A113" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="17.25">
       <c r="A114" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="17.25">
       <c r="A115" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="17.25">
       <c r="A116" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="17.25">
       <c r="A117" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="17.25">
       <c r="A118" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="17.25">
       <c r="A119" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="17.25">
       <c r="A120" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="17.25">
       <c r="A121" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="17.25">
       <c r="A122" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="17.25">
       <c r="A123" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="17.25">
       <c r="A124" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="17.25">
       <c r="A125" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="17.25">
       <c r="A126" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="17.25">
       <c r="A127" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="17.25">
       <c r="A128" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="17.25">
       <c r="A129" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="17.25">
       <c r="A130" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="17.25">
       <c r="A131" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="17.25">
       <c r="A132" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B132" s="10" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="17.25">
       <c r="A133" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="17.25" customFormat="1" s="4">

--- a/server/data/users.xlsx
+++ b/server/data/users.xlsx
@@ -28,7 +28,7 @@
     <t>电话手表</t>
   </si>
   <si>
-    <t>Family</t>
+    <t/>
   </si>
   <si>
     <t>卖自行车</t>
@@ -114,7 +114,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -132,6 +132,9 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -451,9 +454,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="21.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="9" width="21.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21.75">
@@ -474,7 +477,7 @@
       <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -485,7 +488,7 @@
       <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -496,7 +499,7 @@
       <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -507,7 +510,7 @@
       <c r="B5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -518,7 +521,7 @@
       <c r="B6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -529,7 +532,7 @@
       <c r="B7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="7" t="s">
         <v>4</v>
       </c>
     </row>

--- a/server/data/users.xlsx
+++ b/server/data/users.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>工号</t>
   </si>
@@ -25,25 +25,61 @@
     <t>部门</t>
   </si>
   <si>
-    <t>电话手表</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>卖自行车</t>
-  </si>
-  <si>
     <t>架子鼓</t>
   </si>
   <si>
-    <t>亲一口爸爸</t>
-  </si>
-  <si>
-    <t>亲一口妈妈</t>
-  </si>
-  <si>
-    <t>亲个自己</t>
+    <t>向太空出发</t>
+  </si>
+  <si>
+    <t>帮外婆洗碗</t>
+  </si>
+  <si>
+    <t>积木</t>
+  </si>
+  <si>
+    <t>北京烤鸭</t>
+  </si>
+  <si>
+    <t>帮外公倒垃圾</t>
+  </si>
+  <si>
+    <t>魔法水晶</t>
+  </si>
+  <si>
+    <t>乐高</t>
+  </si>
+  <si>
+    <t>给外婆捶捶背</t>
+  </si>
+  <si>
+    <t>爸爸亲宝宝一口</t>
+  </si>
+  <si>
+    <t>一起去吃牛排吧</t>
+  </si>
+  <si>
+    <t>去夹娃娃吧</t>
+  </si>
+  <si>
+    <t>抱抱妈妈</t>
+  </si>
+  <si>
+    <t>妈妈送上学</t>
+  </si>
+  <si>
+    <t>给妈妈讲绘本</t>
+  </si>
+  <si>
+    <t>去旅行吧</t>
+  </si>
+  <si>
+    <t>宝宝亲爸爸一口</t>
+  </si>
+  <si>
+    <t>送妈妈一朵花</t>
+  </si>
+  <si>
+    <t>做个陶瓷</t>
   </si>
 </sst>
 </file>
@@ -51,7 +87,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,12 +98,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="2"/>
     </font>
@@ -114,13 +144,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -128,23 +155,20 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -448,15 +472,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="21.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="21.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21.75">
@@ -466,75 +490,180 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="22.5" customFormat="1" s="4">
-      <c r="A2" s="5">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="22.5" customFormat="1" s="3">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="22.5" customFormat="1" s="3">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="22.5" customFormat="1" s="4">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="22.5" customFormat="1" s="3">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="22.5" customFormat="1" s="3">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="22.5" customFormat="1" s="4">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="22.5" customFormat="1" s="4">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="6" t="s">
+      <c r="C5" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="22.5" customFormat="1" s="3">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="22.5" customFormat="1" s="4">
-      <c r="A6" s="5">
-        <v>5</v>
-      </c>
-      <c r="B6" s="6" t="s">
+      <c r="C6" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="22.5" customFormat="1" s="4">
-      <c r="A7" s="5">
-        <v>6</v>
-      </c>
-      <c r="B7" s="6" t="s">
+      <c r="C7" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+      <c r="A8" s="4">
+        <v>5</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>4</v>
-      </c>
+      <c r="C8" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+      <c r="A9" s="4">
+        <v>5</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+      <c r="A10" s="4">
+        <v>5</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+      <c r="A11" s="4">
+        <v>5</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
+      <c r="A12" s="4">
+        <v>5</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
+      <c r="A13" s="4">
+        <v>5</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
+      <c r="A14" s="4">
+        <v>5</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
+      <c r="A15" s="4">
+        <v>5</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
+      <c r="A16" s="4">
+        <v>5</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
+      <c r="A17" s="4">
+        <v>5</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
+      <c r="A18" s="4">
+        <v>5</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
+      <c r="A19" s="4">
+        <v>5</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
+      <c r="A20" s="4">
+        <v>5</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/server/data/users.xlsx
+++ b/server/data/users.xlsx
@@ -144,7 +144,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -159,6 +159,9 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -478,9 +481,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="21.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="9" width="21.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21.75">
@@ -540,130 +543,130 @@
       <c r="C6" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
-      <c r="A7" s="4">
-        <v>5</v>
-      </c>
-      <c r="B7" s="6" t="s">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="6"/>
+      <c r="C7" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
-      <c r="A8" s="4">
-        <v>5</v>
-      </c>
-      <c r="B8" s="6" t="s">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="6"/>
+      <c r="C8" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
-      <c r="A9" s="4">
-        <v>5</v>
-      </c>
-      <c r="B9" s="6" t="s">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="6"/>
+      <c r="C9" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
-      <c r="A10" s="4">
-        <v>5</v>
-      </c>
-      <c r="B10" s="6" t="s">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="6"/>
+      <c r="C10" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
-      <c r="A11" s="4">
-        <v>5</v>
-      </c>
-      <c r="B11" s="6" t="s">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="6"/>
+      <c r="C11" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
-      <c r="A12" s="4">
-        <v>5</v>
-      </c>
-      <c r="B12" s="6" t="s">
+      <c r="A12" s="6">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="6"/>
+      <c r="C12" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
-      <c r="A13" s="4">
-        <v>5</v>
-      </c>
-      <c r="B13" s="6" t="s">
+      <c r="A13" s="6">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="6"/>
+      <c r="C13" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
-      <c r="A14" s="4">
-        <v>5</v>
-      </c>
-      <c r="B14" s="6" t="s">
+      <c r="A14" s="6">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="6"/>
+      <c r="C14" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
-      <c r="A15" s="4">
-        <v>5</v>
-      </c>
-      <c r="B15" s="6" t="s">
+      <c r="A15" s="6">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="6"/>
+      <c r="C15" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
-      <c r="A16" s="4">
-        <v>5</v>
-      </c>
-      <c r="B16" s="6" t="s">
+      <c r="A16" s="6">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="6"/>
+      <c r="C16" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
-      <c r="A17" s="4">
-        <v>5</v>
-      </c>
-      <c r="B17" s="6" t="s">
+      <c r="A17" s="6">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="6"/>
+      <c r="C17" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
-      <c r="A18" s="4">
-        <v>5</v>
-      </c>
-      <c r="B18" s="6" t="s">
+      <c r="A18" s="6">
+        <v>17</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="6"/>
+      <c r="C18" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
-      <c r="A19" s="4">
-        <v>5</v>
-      </c>
-      <c r="B19" s="6" t="s">
+      <c r="A19" s="6">
+        <v>18</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="6"/>
+      <c r="C19" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
-      <c r="A20" s="4">
-        <v>5</v>
-      </c>
-      <c r="B20" s="6" t="s">
+      <c r="A20" s="6">
+        <v>19</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="6"/>
+      <c r="C20" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/server/data/users.xlsx
+++ b/server/data/users.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>工号</t>
   </si>
@@ -47,9 +47,6 @@
   </si>
   <si>
     <t>乐高</t>
-  </si>
-  <si>
-    <t>给外婆捶捶背</t>
   </si>
   <si>
     <t>爸爸亲宝宝一口</t>
@@ -87,7 +84,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,6 +96,12 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -146,25 +149,25 @@
   </cellStyleXfs>
   <cellXfs count="10">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -475,7 +478,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -486,18 +489,18 @@
     <col min="3" max="3" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21.75">
-      <c r="A1" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21.75" customFormat="1" s="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="22.5" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="22.5" customFormat="1" s="1">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -506,7 +509,7 @@
       </c>
       <c r="C2" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="22.5" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="22.5" customFormat="1" s="1">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -515,7 +518,7 @@
       </c>
       <c r="C3" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="22.5" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="22.5" customFormat="1" s="1">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -524,7 +527,7 @@
       </c>
       <c r="C4" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="22.5" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="22.5" customFormat="1" s="1">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -533,7 +536,7 @@
       </c>
       <c r="C5" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="22.5" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="23.25" customFormat="1" s="1">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -542,7 +545,7 @@
       </c>
       <c r="C6" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -551,7 +554,7 @@
       </c>
       <c r="C7" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -560,7 +563,7 @@
       </c>
       <c r="C8" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -569,104 +572,95 @@
       </c>
       <c r="C9" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A10" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A11" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A12" s="6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A13" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A14" s="6">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A15" s="6">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C15" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A16" s="6">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A17" s="6">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A18" s="6">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C18" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A19" s="6">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C19" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
-      <c r="A20" s="6">
-        <v>19</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/server/data/users.xlsx
+++ b/server/data/users.xlsx
@@ -100,7 +100,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -545,7 +545,7 @@
       </c>
       <c r="C6" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="21.75" customFormat="1" s="1">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -554,7 +554,7 @@
       </c>
       <c r="C7" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="21.75" customFormat="1" s="1">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -563,7 +563,7 @@
       </c>
       <c r="C8" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="21.75" customFormat="1" s="1">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -572,7 +572,7 @@
       </c>
       <c r="C9" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="21.75" customFormat="1" s="1">
       <c r="A10" s="6">
         <v>10</v>
       </c>
@@ -581,7 +581,7 @@
       </c>
       <c r="C10" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="21.75" customFormat="1" s="1">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -590,7 +590,7 @@
       </c>
       <c r="C11" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="21.75" customFormat="1" s="1">
       <c r="A12" s="6">
         <v>12</v>
       </c>
@@ -599,7 +599,7 @@
       </c>
       <c r="C12" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="21.75" customFormat="1" s="1">
       <c r="A13" s="6">
         <v>13</v>
       </c>
@@ -608,7 +608,7 @@
       </c>
       <c r="C13" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="21.75" customFormat="1" s="1">
       <c r="A14" s="6">
         <v>14</v>
       </c>
@@ -617,7 +617,7 @@
       </c>
       <c r="C14" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="21.75" customFormat="1" s="1">
       <c r="A15" s="6">
         <v>15</v>
       </c>
@@ -626,7 +626,7 @@
       </c>
       <c r="C15" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="21.75" customFormat="1" s="1">
       <c r="A16" s="6">
         <v>16</v>
       </c>
@@ -635,7 +635,7 @@
       </c>
       <c r="C16" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="21.75" customFormat="1" s="1">
       <c r="A17" s="6">
         <v>17</v>
       </c>
@@ -644,7 +644,7 @@
       </c>
       <c r="C17" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="21.75" customFormat="1" s="1">
       <c r="A18" s="6">
         <v>18</v>
       </c>
@@ -653,7 +653,7 @@
       </c>
       <c r="C18" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="21.75" customFormat="1" s="1">
       <c r="A19" s="6">
         <v>19</v>
       </c>

--- a/server/data/users.xlsx
+++ b/server/data/users.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>工号</t>
   </si>
@@ -77,6 +77,15 @@
   </si>
   <si>
     <t>做个陶瓷</t>
+  </si>
+  <si>
+    <t>拖地吧</t>
+  </si>
+  <si>
+    <t>鱼竿</t>
+  </si>
+  <si>
+    <t>电话手表</t>
   </si>
 </sst>
 </file>
@@ -84,7 +93,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,6 +110,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -147,7 +162,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -170,11 +185,23 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -478,15 +505,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="21.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="11" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="12" width="21.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="13" width="12.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21.75" customFormat="1" s="1">
@@ -662,6 +689,33 @@
       </c>
       <c r="C19" s="7"/>
     </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A20" s="8">
+        <v>20</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A21" s="8">
+        <v>21</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A22" s="8">
+        <v>22</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="10"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/server/data/users.xlsx
+++ b/server/data/users.xlsx
@@ -31,7 +31,7 @@
     <t>向太空出发</t>
   </si>
   <si>
-    <t>帮外婆洗碗</t>
+    <t>帮忙洗碗</t>
   </si>
   <si>
     <t>积木</t>
@@ -40,7 +40,7 @@
     <t>北京烤鸭</t>
   </si>
   <si>
-    <t>帮外公倒垃圾</t>
+    <t>帮忙倒垃圾</t>
   </si>
   <si>
     <t>魔法水晶</t>
@@ -162,7 +162,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -185,14 +185,8 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -511,9 +505,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="11" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="12" width="21.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="13" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="9" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="10" width="21.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="11" width="12.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21.75" customFormat="1" s="1">
@@ -689,32 +683,32 @@
       </c>
       <c r="C19" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A20" s="8">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="21.75" customFormat="1" s="1">
+      <c r="A20" s="6">
         <v>20</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="10"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A21" s="8">
+      <c r="C20" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="21.75" customFormat="1" s="1">
+      <c r="A21" s="6">
         <v>21</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="10"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A22" s="8">
+      <c r="C21" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="21.75" customFormat="1" s="1">
+      <c r="A22" s="6">
         <v>22</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="10"/>
+      <c r="C22" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/server/data/users.xlsx
+++ b/server/data/users.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10312"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rileyli/xxx/dn-lottery/server/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C8EE245-17B9-DD47-B7D6-FAF8F3780FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="60920" yWindow="7880" windowWidth="18660" windowHeight="20600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>工号</t>
   </si>
@@ -86,18 +92,65 @@
   </si>
   <si>
     <t>电话手表</t>
+  </si>
+  <si>
+    <t>滚筒洗衣机</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>太阳能月球车</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔方</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>小小雨伞</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>昼夜演示</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>悬浮列车</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>彩色笔</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息无障碍书签</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>十万个高科技为什么</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>叠被子吧</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己准备衣服</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>去Meland吧</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -118,6 +171,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -162,50 +222,50 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -216,10 +276,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="CCE8CF" val="window"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -257,71 +317,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -349,7 +409,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -372,11 +432,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -385,13 +445,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -401,7 +461,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -410,7 +470,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -419,7 +479,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -427,10 +487,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -495,22 +555,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" style="9" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="10" width="21.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="11" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="12.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21.75" customFormat="1" s="1">
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="21.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -521,7 +583,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="22.5" customFormat="1" s="1">
+    <row r="2" spans="1:3" s="1" customFormat="1" ht="22.5" customHeight="1">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -530,7 +592,7 @@
       </c>
       <c r="C2" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="22.5" customFormat="1" s="1">
+    <row r="3" spans="1:3" s="1" customFormat="1" ht="22.5" customHeight="1">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -539,7 +601,7 @@
       </c>
       <c r="C3" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="22.5" customFormat="1" s="1">
+    <row r="4" spans="1:3" s="1" customFormat="1" ht="22.5" customHeight="1">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -548,7 +610,7 @@
       </c>
       <c r="C4" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="22.5" customFormat="1" s="1">
+    <row r="5" spans="1:3" s="1" customFormat="1" ht="22.5" customHeight="1">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -557,7 +619,7 @@
       </c>
       <c r="C5" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="23.25" customFormat="1" s="1">
+    <row r="6" spans="1:3" s="1" customFormat="1" ht="23.25" customHeight="1">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -566,7 +628,7 @@
       </c>
       <c r="C6" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="21.75" customFormat="1" s="1">
+    <row r="7" spans="1:3" s="1" customFormat="1" ht="21.75" customHeight="1">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -575,7 +637,7 @@
       </c>
       <c r="C7" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="21.75" customFormat="1" s="1">
+    <row r="8" spans="1:3" s="1" customFormat="1" ht="21.75" customHeight="1">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -584,7 +646,7 @@
       </c>
       <c r="C8" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="21.75" customFormat="1" s="1">
+    <row r="9" spans="1:3" s="1" customFormat="1" ht="21.75" customHeight="1">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -593,7 +655,7 @@
       </c>
       <c r="C9" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="21.75" customFormat="1" s="1">
+    <row r="10" spans="1:3" s="1" customFormat="1" ht="21.75" customHeight="1">
       <c r="A10" s="6">
         <v>10</v>
       </c>
@@ -602,7 +664,7 @@
       </c>
       <c r="C10" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="21.75" customFormat="1" s="1">
+    <row r="11" spans="1:3" s="1" customFormat="1" ht="21.75" customHeight="1">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -611,7 +673,7 @@
       </c>
       <c r="C11" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="21.75" customFormat="1" s="1">
+    <row r="12" spans="1:3" s="1" customFormat="1" ht="21.75" customHeight="1">
       <c r="A12" s="6">
         <v>12</v>
       </c>
@@ -620,7 +682,7 @@
       </c>
       <c r="C12" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="21.75" customFormat="1" s="1">
+    <row r="13" spans="1:3" s="1" customFormat="1" ht="21.75" customHeight="1">
       <c r="A13" s="6">
         <v>13</v>
       </c>
@@ -629,7 +691,7 @@
       </c>
       <c r="C13" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="21.75" customFormat="1" s="1">
+    <row r="14" spans="1:3" s="1" customFormat="1" ht="21.75" customHeight="1">
       <c r="A14" s="6">
         <v>14</v>
       </c>
@@ -638,7 +700,7 @@
       </c>
       <c r="C14" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="21.75" customFormat="1" s="1">
+    <row r="15" spans="1:3" s="1" customFormat="1" ht="21.75" customHeight="1">
       <c r="A15" s="6">
         <v>15</v>
       </c>
@@ -647,7 +709,7 @@
       </c>
       <c r="C15" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="21.75" customFormat="1" s="1">
+    <row r="16" spans="1:3" s="1" customFormat="1" ht="21.75" customHeight="1">
       <c r="A16" s="6">
         <v>16</v>
       </c>
@@ -656,7 +718,7 @@
       </c>
       <c r="C16" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="21.75" customFormat="1" s="1">
+    <row r="17" spans="1:3" s="1" customFormat="1" ht="21.75" customHeight="1">
       <c r="A17" s="6">
         <v>17</v>
       </c>
@@ -665,7 +727,7 @@
       </c>
       <c r="C17" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="21.75" customFormat="1" s="1">
+    <row r="18" spans="1:3" s="1" customFormat="1" ht="21.75" customHeight="1">
       <c r="A18" s="6">
         <v>18</v>
       </c>
@@ -674,7 +736,7 @@
       </c>
       <c r="C18" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="21.75" customFormat="1" s="1">
+    <row r="19" spans="1:3" s="1" customFormat="1" ht="21.75" customHeight="1">
       <c r="A19" s="6">
         <v>19</v>
       </c>
@@ -683,7 +745,7 @@
       </c>
       <c r="C19" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="21.75" customFormat="1" s="1">
+    <row r="20" spans="1:3" s="1" customFormat="1" ht="21.75" customHeight="1">
       <c r="A20" s="6">
         <v>20</v>
       </c>
@@ -692,7 +754,7 @@
       </c>
       <c r="C20" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="21.75" customFormat="1" s="1">
+    <row r="21" spans="1:3" s="1" customFormat="1" ht="21.75" customHeight="1">
       <c r="A21" s="6">
         <v>21</v>
       </c>
@@ -701,7 +763,7 @@
       </c>
       <c r="C21" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="21.75" customFormat="1" s="1">
+    <row r="22" spans="1:3" s="1" customFormat="1" ht="21.75" customHeight="1">
       <c r="A22" s="6">
         <v>22</v>
       </c>
@@ -710,7 +772,104 @@
       </c>
       <c r="C22" s="8"/>
     </row>
+    <row r="23" spans="1:3" ht="15">
+      <c r="A23" s="9">
+        <v>23</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15">
+      <c r="A24" s="9">
+        <v>24</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15">
+      <c r="A25" s="9">
+        <v>25</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15">
+      <c r="A26" s="9">
+        <v>26</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15">
+      <c r="A27" s="9">
+        <v>27</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15">
+      <c r="A28" s="9">
+        <v>28</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15">
+      <c r="A29" s="9">
+        <v>29</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15">
+      <c r="A30" s="9">
+        <v>30</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15">
+      <c r="A31" s="9">
+        <v>31</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15">
+      <c r="A32" s="9">
+        <v>32</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15">
+      <c r="A33" s="9">
+        <v>33</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15">
+      <c r="A34" s="9">
+        <v>35</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/server/data/users.xlsx
+++ b/server/data/users.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10312"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rileyli/xxx/dn-lottery/server/data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C8EE245-17B9-DD47-B7D6-FAF8F3780FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60920" yWindow="7880" windowWidth="18660" windowHeight="20600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -95,62 +89,51 @@
   </si>
   <si>
     <t>滚筒洗衣机</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>太阳能月球车</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>魔方</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>小小雨伞</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>昼夜演示</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>悬浮列车</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>彩色笔</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>信息无障碍书签</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>十万个高科技为什么</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>叠被子吧</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>自己准备衣服</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>去Meland吧</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -171,13 +154,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -222,50 +198,56 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="14">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -276,10 +258,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr lastClr="CCE8CF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -317,71 +299,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -409,7 +391,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -432,11 +414,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -445,13 +427,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -461,7 +443,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -470,7 +452,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -479,7 +461,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -487,10 +469,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -555,24 +537,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="11" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="12" width="21.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="13" width="12.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="21.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21.75" customFormat="1" s="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -583,7 +563,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="1" customFormat="1" ht="22.5" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="22.5" customFormat="1" s="1">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -592,7 +572,7 @@
       </c>
       <c r="C2" s="5"/>
     </row>
-    <row r="3" spans="1:3" s="1" customFormat="1" ht="22.5" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="22.5" customFormat="1" s="1">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -601,7 +581,7 @@
       </c>
       <c r="C3" s="5"/>
     </row>
-    <row r="4" spans="1:3" s="1" customFormat="1" ht="22.5" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="22.5" customFormat="1" s="1">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -610,7 +590,7 @@
       </c>
       <c r="C4" s="5"/>
     </row>
-    <row r="5" spans="1:3" s="1" customFormat="1" ht="22.5" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="22.5" customFormat="1" s="1">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -619,7 +599,7 @@
       </c>
       <c r="C5" s="5"/>
     </row>
-    <row r="6" spans="1:3" s="1" customFormat="1" ht="23.25" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="23.25" customFormat="1" s="1">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -628,7 +608,7 @@
       </c>
       <c r="C6" s="5"/>
     </row>
-    <row r="7" spans="1:3" s="1" customFormat="1" ht="21.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="21.75" customFormat="1" s="1">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -637,7 +617,7 @@
       </c>
       <c r="C7" s="7"/>
     </row>
-    <row r="8" spans="1:3" s="1" customFormat="1" ht="21.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="21.75" customFormat="1" s="1">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -646,7 +626,7 @@
       </c>
       <c r="C8" s="7"/>
     </row>
-    <row r="9" spans="1:3" s="1" customFormat="1" ht="21.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="21.75" customFormat="1" s="1">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -655,7 +635,7 @@
       </c>
       <c r="C9" s="7"/>
     </row>
-    <row r="10" spans="1:3" s="1" customFormat="1" ht="21.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="21.75" customFormat="1" s="1">
       <c r="A10" s="6">
         <v>10</v>
       </c>
@@ -664,7 +644,7 @@
       </c>
       <c r="C10" s="7"/>
     </row>
-    <row r="11" spans="1:3" s="1" customFormat="1" ht="21.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="21.75" customFormat="1" s="1">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -673,7 +653,7 @@
       </c>
       <c r="C11" s="7"/>
     </row>
-    <row r="12" spans="1:3" s="1" customFormat="1" ht="21.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="21.75" customFormat="1" s="1">
       <c r="A12" s="6">
         <v>12</v>
       </c>
@@ -682,7 +662,7 @@
       </c>
       <c r="C12" s="7"/>
     </row>
-    <row r="13" spans="1:3" s="1" customFormat="1" ht="21.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="21.75" customFormat="1" s="1">
       <c r="A13" s="6">
         <v>13</v>
       </c>
@@ -691,7 +671,7 @@
       </c>
       <c r="C13" s="7"/>
     </row>
-    <row r="14" spans="1:3" s="1" customFormat="1" ht="21.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="21.75" customFormat="1" s="1">
       <c r="A14" s="6">
         <v>14</v>
       </c>
@@ -700,7 +680,7 @@
       </c>
       <c r="C14" s="7"/>
     </row>
-    <row r="15" spans="1:3" s="1" customFormat="1" ht="21.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="21.75" customFormat="1" s="1">
       <c r="A15" s="6">
         <v>15</v>
       </c>
@@ -709,7 +689,7 @@
       </c>
       <c r="C15" s="7"/>
     </row>
-    <row r="16" spans="1:3" s="1" customFormat="1" ht="21.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="21.75" customFormat="1" s="1">
       <c r="A16" s="6">
         <v>16</v>
       </c>
@@ -718,7 +698,7 @@
       </c>
       <c r="C16" s="7"/>
     </row>
-    <row r="17" spans="1:3" s="1" customFormat="1" ht="21.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="21.75" customFormat="1" s="1">
       <c r="A17" s="6">
         <v>17</v>
       </c>
@@ -727,7 +707,7 @@
       </c>
       <c r="C17" s="7"/>
     </row>
-    <row r="18" spans="1:3" s="1" customFormat="1" ht="21.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="21.75" customFormat="1" s="1">
       <c r="A18" s="6">
         <v>18</v>
       </c>
@@ -736,7 +716,7 @@
       </c>
       <c r="C18" s="7"/>
     </row>
-    <row r="19" spans="1:3" s="1" customFormat="1" ht="21.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="21.75" customFormat="1" s="1">
       <c r="A19" s="6">
         <v>19</v>
       </c>
@@ -745,131 +725,142 @@
       </c>
       <c r="C19" s="7"/>
     </row>
-    <row r="20" spans="1:3" s="1" customFormat="1" ht="21.75" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="21.75" customFormat="1" s="1">
       <c r="A20" s="6">
         <v>20</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="8"/>
-    </row>
-    <row r="21" spans="1:3" s="1" customFormat="1" ht="21.75" customHeight="1">
+      <c r="C20" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="21.75" customFormat="1" s="1">
       <c r="A21" s="6">
         <v>21</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="8"/>
-    </row>
-    <row r="22" spans="1:3" s="1" customFormat="1" ht="21.75" customHeight="1">
+      <c r="C21" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="21.75" customFormat="1" s="1">
       <c r="A22" s="6">
         <v>22</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="8"/>
-    </row>
-    <row r="23" spans="1:3" ht="15">
-      <c r="A23" s="9">
+      <c r="C22" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A23" s="8">
         <v>23</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="9" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="15">
-      <c r="A24" s="9">
+      <c r="C23" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A24" s="8">
         <v>24</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="9" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="15">
-      <c r="A25" s="9">
+      <c r="C24" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A25" s="8">
         <v>25</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="9" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="15">
-      <c r="A26" s="9">
+      <c r="C25" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A26" s="8">
         <v>26</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="15">
-      <c r="A27" s="9">
+      <c r="C26" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A27" s="8">
         <v>27</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="9" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="15">
-      <c r="A28" s="9">
+      <c r="C27" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A28" s="8">
         <v>28</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="9" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="15">
-      <c r="A29" s="9">
+      <c r="C28" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A29" s="8">
         <v>29</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="9" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="15">
-      <c r="A30" s="9">
+      <c r="C29" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A30" s="8">
         <v>30</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="9" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="15">
-      <c r="A31" s="9">
+      <c r="C30" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A31" s="8">
         <v>31</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="9" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="15">
-      <c r="A32" s="9">
+      <c r="C31" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A32" s="8">
         <v>32</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="9" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" ht="15">
-      <c r="A33" s="9">
+      <c r="C32" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A33" s="8">
         <v>33</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="9" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" ht="15">
-      <c r="A34" s="9">
+      <c r="C33" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A34" s="8">
         <v>35</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="9" t="s">
         <v>35</v>
       </c>
+      <c r="C34" s="10"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/server/data/users.xlsx
+++ b/server/data/users.xlsx
@@ -82,7 +82,7 @@
     <t>拖地吧</t>
   </si>
   <si>
-    <t>鱼竿</t>
+    <t>鱼竿-周末钓鱼吧</t>
   </si>
   <si>
     <t>电话手表</t>
@@ -198,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -221,14 +221,8 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -547,9 +541,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="11" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="12" width="21.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="13" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="9" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="10" width="21.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="11" width="12.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21.75" customFormat="1" s="1">
@@ -753,112 +747,112 @@
       <c r="C22" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A23" s="8">
+      <c r="A23" s="6">
         <v>23</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="10"/>
+      <c r="C23" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A24" s="8">
+      <c r="A24" s="6">
         <v>24</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="10"/>
+      <c r="C24" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A25" s="8">
+      <c r="A25" s="6">
         <v>25</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="10"/>
+      <c r="C25" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A26" s="8">
+      <c r="A26" s="6">
         <v>26</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="10"/>
+      <c r="C26" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A27" s="8">
+      <c r="A27" s="6">
         <v>27</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="10"/>
+      <c r="C27" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A28" s="8">
+      <c r="A28" s="6">
         <v>28</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="10"/>
+      <c r="C28" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A29" s="8">
+      <c r="A29" s="6">
         <v>29</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="10"/>
+      <c r="C29" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A30" s="8">
+      <c r="A30" s="6">
         <v>30</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="10"/>
+      <c r="C30" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A31" s="8">
+      <c r="A31" s="6">
         <v>31</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="10"/>
+      <c r="C31" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A32" s="8">
+      <c r="A32" s="6">
         <v>32</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="10"/>
+      <c r="C32" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A33" s="8">
+      <c r="A33" s="6">
         <v>33</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="10"/>
+      <c r="C33" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A34" s="8">
+      <c r="A34" s="6">
         <v>35</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="10"/>
+      <c r="C34" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/server/data/users.xlsx
+++ b/server/data/users.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10312"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rileyli/xxx/dn-lottery/server/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD5A4E21-739B-AB42-A79B-BA2A03D06B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="6040" yWindow="4960" windowWidth="17220" windowHeight="20920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>工号</t>
   </si>
@@ -122,18 +128,25 @@
   </si>
   <si>
     <t>去Meland吧</t>
+  </si>
+  <si>
+    <t>儿童防晒帽</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂脖风扇</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -154,6 +167,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -198,50 +218,50 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -252,10 +272,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="CCE8CF" val="window"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -293,71 +313,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -385,7 +405,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -408,11 +428,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -421,13 +441,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -437,7 +457,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -446,7 +466,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -455,7 +475,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -463,10 +483,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -531,22 +551,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" style="9" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="10" width="21.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="11" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="12.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21.75" customFormat="1" s="1">
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="21.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -557,7 +579,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="22.5" customFormat="1" s="1">
+    <row r="2" spans="1:3" s="1" customFormat="1" ht="22.5" customHeight="1">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -566,7 +588,7 @@
       </c>
       <c r="C2" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="22.5" customFormat="1" s="1">
+    <row r="3" spans="1:3" s="1" customFormat="1" ht="22.5" customHeight="1">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -575,7 +597,7 @@
       </c>
       <c r="C3" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="22.5" customFormat="1" s="1">
+    <row r="4" spans="1:3" s="1" customFormat="1" ht="22.5" customHeight="1">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -584,7 +606,7 @@
       </c>
       <c r="C4" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="22.5" customFormat="1" s="1">
+    <row r="5" spans="1:3" s="1" customFormat="1" ht="22.5" customHeight="1">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -593,7 +615,7 @@
       </c>
       <c r="C5" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="23.25" customFormat="1" s="1">
+    <row r="6" spans="1:3" s="1" customFormat="1" ht="23.25" customHeight="1">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -602,7 +624,7 @@
       </c>
       <c r="C6" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="21.75" customFormat="1" s="1">
+    <row r="7" spans="1:3" s="1" customFormat="1" ht="21.75" customHeight="1">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -611,7 +633,7 @@
       </c>
       <c r="C7" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="21.75" customFormat="1" s="1">
+    <row r="8" spans="1:3" s="1" customFormat="1" ht="21.75" customHeight="1">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -620,7 +642,7 @@
       </c>
       <c r="C8" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="21.75" customFormat="1" s="1">
+    <row r="9" spans="1:3" s="1" customFormat="1" ht="21.75" customHeight="1">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -629,7 +651,7 @@
       </c>
       <c r="C9" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="21.75" customFormat="1" s="1">
+    <row r="10" spans="1:3" s="1" customFormat="1" ht="21.75" customHeight="1">
       <c r="A10" s="6">
         <v>10</v>
       </c>
@@ -638,7 +660,7 @@
       </c>
       <c r="C10" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="21.75" customFormat="1" s="1">
+    <row r="11" spans="1:3" s="1" customFormat="1" ht="21.75" customHeight="1">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -647,7 +669,7 @@
       </c>
       <c r="C11" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="21.75" customFormat="1" s="1">
+    <row r="12" spans="1:3" s="1" customFormat="1" ht="21.75" customHeight="1">
       <c r="A12" s="6">
         <v>12</v>
       </c>
@@ -656,7 +678,7 @@
       </c>
       <c r="C12" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="21.75" customFormat="1" s="1">
+    <row r="13" spans="1:3" s="1" customFormat="1" ht="21.75" customHeight="1">
       <c r="A13" s="6">
         <v>13</v>
       </c>
@@ -665,7 +687,7 @@
       </c>
       <c r="C13" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="21.75" customFormat="1" s="1">
+    <row r="14" spans="1:3" s="1" customFormat="1" ht="21.75" customHeight="1">
       <c r="A14" s="6">
         <v>14</v>
       </c>
@@ -674,7 +696,7 @@
       </c>
       <c r="C14" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="21.75" customFormat="1" s="1">
+    <row r="15" spans="1:3" s="1" customFormat="1" ht="21.75" customHeight="1">
       <c r="A15" s="6">
         <v>15</v>
       </c>
@@ -683,7 +705,7 @@
       </c>
       <c r="C15" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="21.75" customFormat="1" s="1">
+    <row r="16" spans="1:3" s="1" customFormat="1" ht="21.75" customHeight="1">
       <c r="A16" s="6">
         <v>16</v>
       </c>
@@ -692,7 +714,7 @@
       </c>
       <c r="C16" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="21.75" customFormat="1" s="1">
+    <row r="17" spans="1:3" s="1" customFormat="1" ht="21.75" customHeight="1">
       <c r="A17" s="6">
         <v>17</v>
       </c>
@@ -701,7 +723,7 @@
       </c>
       <c r="C17" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="21.75" customFormat="1" s="1">
+    <row r="18" spans="1:3" s="1" customFormat="1" ht="21.75" customHeight="1">
       <c r="A18" s="6">
         <v>18</v>
       </c>
@@ -710,7 +732,7 @@
       </c>
       <c r="C18" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="21.75" customFormat="1" s="1">
+    <row r="19" spans="1:3" s="1" customFormat="1" ht="21.75" customHeight="1">
       <c r="A19" s="6">
         <v>19</v>
       </c>
@@ -719,7 +741,7 @@
       </c>
       <c r="C19" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="21.75" customFormat="1" s="1">
+    <row r="20" spans="1:3" s="1" customFormat="1" ht="21.75" customHeight="1">
       <c r="A20" s="6">
         <v>20</v>
       </c>
@@ -728,7 +750,7 @@
       </c>
       <c r="C20" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="21.75" customFormat="1" s="1">
+    <row r="21" spans="1:3" s="1" customFormat="1" ht="21.75" customHeight="1">
       <c r="A21" s="6">
         <v>21</v>
       </c>
@@ -737,7 +759,7 @@
       </c>
       <c r="C21" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="21.75" customFormat="1" s="1">
+    <row r="22" spans="1:3" s="1" customFormat="1" ht="21.75" customHeight="1">
       <c r="A22" s="6">
         <v>22</v>
       </c>
@@ -746,7 +768,7 @@
       </c>
       <c r="C22" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row r="23" spans="1:3" s="1" customFormat="1" ht="17.25" customHeight="1">
       <c r="A23" s="6">
         <v>23</v>
       </c>
@@ -755,7 +777,7 @@
       </c>
       <c r="C23" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row r="24" spans="1:3" s="1" customFormat="1" ht="17.25" customHeight="1">
       <c r="A24" s="6">
         <v>24</v>
       </c>
@@ -764,7 +786,7 @@
       </c>
       <c r="C24" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row r="25" spans="1:3" s="1" customFormat="1" ht="17.25" customHeight="1">
       <c r="A25" s="6">
         <v>25</v>
       </c>
@@ -773,7 +795,7 @@
       </c>
       <c r="C25" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row r="26" spans="1:3" s="1" customFormat="1" ht="17.25" customHeight="1">
       <c r="A26" s="6">
         <v>26</v>
       </c>
@@ -782,7 +804,7 @@
       </c>
       <c r="C26" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row r="27" spans="1:3" s="1" customFormat="1" ht="17.25" customHeight="1">
       <c r="A27" s="6">
         <v>27</v>
       </c>
@@ -791,7 +813,7 @@
       </c>
       <c r="C27" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row r="28" spans="1:3" s="1" customFormat="1" ht="17.25" customHeight="1">
       <c r="A28" s="6">
         <v>28</v>
       </c>
@@ -800,7 +822,7 @@
       </c>
       <c r="C28" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row r="29" spans="1:3" s="1" customFormat="1" ht="17.25" customHeight="1">
       <c r="A29" s="6">
         <v>29</v>
       </c>
@@ -809,7 +831,7 @@
       </c>
       <c r="C29" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row r="30" spans="1:3" s="1" customFormat="1" ht="17.25" customHeight="1">
       <c r="A30" s="6">
         <v>30</v>
       </c>
@@ -818,7 +840,7 @@
       </c>
       <c r="C30" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row r="31" spans="1:3" s="1" customFormat="1" ht="17.25" customHeight="1">
       <c r="A31" s="6">
         <v>31</v>
       </c>
@@ -827,7 +849,7 @@
       </c>
       <c r="C31" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row r="32" spans="1:3" s="1" customFormat="1" ht="17.25" customHeight="1">
       <c r="A32" s="6">
         <v>32</v>
       </c>
@@ -836,7 +858,7 @@
       </c>
       <c r="C32" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row r="33" spans="1:3" s="1" customFormat="1" ht="17.25" customHeight="1">
       <c r="A33" s="6">
         <v>33</v>
       </c>
@@ -845,16 +867,33 @@
       </c>
       <c r="C33" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row r="34" spans="1:3" s="1" customFormat="1" ht="17.25" customHeight="1">
       <c r="A34" s="6">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>35</v>
       </c>
       <c r="C34" s="8"/>
     </row>
+    <row r="35" spans="1:3" ht="16">
+      <c r="A35" s="6">
+        <v>35</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="16">
+      <c r="A36" s="6">
+        <v>36</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/server/data/users.xlsx
+++ b/server/data/users.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rileyli/xxx/dn-lottery/server/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD5A4E21-739B-AB42-A79B-BA2A03D06B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2933B330-D2B6-6C46-B12F-BD4BB4965CD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6040" yWindow="4960" windowWidth="17220" windowHeight="20920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2860" yWindow="2600" windowWidth="24480" windowHeight="24460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>工号</t>
   </si>
@@ -131,10 +131,16 @@
   </si>
   <si>
     <t>儿童防晒帽</t>
+  </si>
+  <si>
+    <t>挂脖风扇</t>
+  </si>
+  <si>
+    <t>莎士比亚</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>挂脖风扇</t>
+    <t>看兵马俑吧</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -555,10 +561,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -768,128 +774,144 @@
       </c>
       <c r="C22" s="7"/>
     </row>
-    <row r="23" spans="1:3" s="1" customFormat="1" ht="17.25" customHeight="1">
+    <row r="23" spans="1:3" s="1" customFormat="1" ht="21.75" customHeight="1">
       <c r="A23" s="6">
         <v>23</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="8"/>
-    </row>
-    <row r="24" spans="1:3" s="1" customFormat="1" ht="17.25" customHeight="1">
+      <c r="C23" s="7"/>
+    </row>
+    <row r="24" spans="1:3" s="1" customFormat="1" ht="21.75" customHeight="1">
       <c r="A24" s="6">
         <v>24</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="8"/>
-    </row>
-    <row r="25" spans="1:3" s="1" customFormat="1" ht="17.25" customHeight="1">
+      <c r="C24" s="7"/>
+    </row>
+    <row r="25" spans="1:3" s="1" customFormat="1" ht="21.75" customHeight="1">
       <c r="A25" s="6">
         <v>25</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="8"/>
-    </row>
-    <row r="26" spans="1:3" s="1" customFormat="1" ht="17.25" customHeight="1">
+      <c r="C25" s="7"/>
+    </row>
+    <row r="26" spans="1:3" s="1" customFormat="1" ht="21.75" customHeight="1">
       <c r="A26" s="6">
         <v>26</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="8"/>
-    </row>
-    <row r="27" spans="1:3" s="1" customFormat="1" ht="17.25" customHeight="1">
+      <c r="C26" s="7"/>
+    </row>
+    <row r="27" spans="1:3" s="1" customFormat="1" ht="21.75" customHeight="1">
       <c r="A27" s="6">
         <v>27</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="8"/>
-    </row>
-    <row r="28" spans="1:3" s="1" customFormat="1" ht="17.25" customHeight="1">
+      <c r="C27" s="7"/>
+    </row>
+    <row r="28" spans="1:3" s="1" customFormat="1" ht="21.75" customHeight="1">
       <c r="A28" s="6">
         <v>28</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="8"/>
-    </row>
-    <row r="29" spans="1:3" s="1" customFormat="1" ht="17.25" customHeight="1">
+      <c r="C28" s="7"/>
+    </row>
+    <row r="29" spans="1:3" s="1" customFormat="1" ht="21.75" customHeight="1">
       <c r="A29" s="6">
         <v>29</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="8"/>
-    </row>
-    <row r="30" spans="1:3" s="1" customFormat="1" ht="17.25" customHeight="1">
+      <c r="C29" s="7"/>
+    </row>
+    <row r="30" spans="1:3" s="1" customFormat="1" ht="21.75" customHeight="1">
       <c r="A30" s="6">
         <v>30</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="8"/>
-    </row>
-    <row r="31" spans="1:3" s="1" customFormat="1" ht="17.25" customHeight="1">
+      <c r="C30" s="7"/>
+    </row>
+    <row r="31" spans="1:3" s="1" customFormat="1" ht="21.75" customHeight="1">
       <c r="A31" s="6">
         <v>31</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="8"/>
-    </row>
-    <row r="32" spans="1:3" s="1" customFormat="1" ht="17.25" customHeight="1">
+      <c r="C31" s="7"/>
+    </row>
+    <row r="32" spans="1:3" s="1" customFormat="1" ht="21.75" customHeight="1">
       <c r="A32" s="6">
         <v>32</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="8"/>
-    </row>
-    <row r="33" spans="1:3" s="1" customFormat="1" ht="17.25" customHeight="1">
+      <c r="C32" s="7"/>
+    </row>
+    <row r="33" spans="1:3" s="1" customFormat="1" ht="21.75" customHeight="1">
       <c r="A33" s="6">
         <v>33</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="8"/>
-    </row>
-    <row r="34" spans="1:3" s="1" customFormat="1" ht="17.25" customHeight="1">
+      <c r="C33" s="7"/>
+    </row>
+    <row r="34" spans="1:3" s="1" customFormat="1" ht="21.75" customHeight="1">
       <c r="A34" s="6">
         <v>34</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="8"/>
-    </row>
-    <row r="35" spans="1:3" ht="16">
+      <c r="C34" s="7"/>
+    </row>
+    <row r="35" spans="1:3" s="1" customFormat="1" ht="21.75" customHeight="1">
       <c r="A35" s="6">
         <v>35</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="16">
+    <row r="36" spans="1:3" s="1" customFormat="1" ht="21.75" customHeight="1">
       <c r="A36" s="6">
         <v>36</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="8" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15">
+      <c r="A37" s="9">
+        <v>37</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15">
+      <c r="A38" s="9">
+        <v>38</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
